--- a/result/mf_data_analysis.xlsx
+++ b/result/mf_data_analysis.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E68E64-F017-F74A-A073-CE2B05173E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84579FFA-133B-3647-ADFB-E89B48C580CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Regime_Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -515,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -524,6 +537,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4435,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4618,7 +4634,7 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>0.923412843893197</v>
       </c>
     </row>
